--- a/42417_Manufacturing_Case_Data_120623 (1).xlsx
+++ b/42417_Manufacturing_Case_Data_120623 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/alar_dtu_dk/Documents/DTU documents/Courses/42417 Simulation in Operations Management/June 2023/Case study projects/Manufacturing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C099E564-D7E7-479A-8DB7-30759DBA02B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5CAD11-089D-47D6-9F61-7042CE61ED99}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{C099E564-D7E7-479A-8DB7-30759DBA02B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D871C70-6D24-46BD-BD72-7C9590396D7E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Plan" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t> </t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Batching to tubs</t>
+  </si>
+  <si>
+    <t>FishCoefficient</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,6 +828,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,22 +1207,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.06640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.06640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1239,8 +1245,11 @@
       <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H1" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>45090.056944444441</v>
       </c>
@@ -1262,8 +1271,11 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H2" s="55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>45090.100694444445</v>
       </c>
@@ -1285,8 +1297,11 @@
       <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H3" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>45090.10833333333</v>
       </c>
@@ -1308,8 +1323,11 @@
       <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H4" s="55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>45090.145833333336</v>
       </c>
@@ -1330,13 +1348,16 @@
       </c>
       <c r="G5" s="11" t="s">
         <v>29</v>
+      </c>
+      <c r="H5" s="55">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>45090.152777777781</v>
       </c>
@@ -1358,8 +1379,11 @@
       <c r="G6" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H6" s="55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>45090.15347222222</v>
       </c>
@@ -1381,8 +1405,11 @@
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H7" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>45090.156944444447</v>
       </c>
@@ -1404,8 +1431,11 @@
       <c r="G8" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H8" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>45090.162499999999</v>
       </c>
@@ -1427,8 +1457,11 @@
       <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H9" s="55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>45090.206250000003</v>
       </c>
@@ -1450,8 +1483,11 @@
       <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H10" s="55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>45090.230555555558</v>
       </c>
@@ -1473,12 +1509,15 @@
       <c r="G11" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H11" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="50"/>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
       <c r="B13" s="14"/>
     </row>
@@ -1487,6 +1526,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1494,27 +1534,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="51.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="51.81640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1580,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1568,17 +1608,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1590,7 +1630,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
@@ -1600,7 +1640,7 @@
       <c r="C8" s="51"/>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>21</v>
       </c>
@@ -1612,13 +1652,13 @@
       </c>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="43"/>
       <c r="C10" s="2"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1670,7 @@
       </c>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>51</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -1658,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>58</v>
       </c>
@@ -1672,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1698,7 +1738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1710,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1724,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1738,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
         <v>32</v>
       </c>
@@ -1750,69 +1790,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
         <v>46</v>
       </c>
@@ -1820,29 +1860,29 @@
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
     </row>
-    <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="64" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-    </row>
-    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1890,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>52</v>
       </c>
@@ -1882,1007 +1922,1007 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1.45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1.51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1.61</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1.53</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1.59</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1.74</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>0.84</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>0.69</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1.18</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1.45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2.21</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>0.89</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1.54</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1.99</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1.21</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1.58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1.77</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>0.89</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1.47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>0.43</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>2.21</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1.93</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>0.74</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1.99</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1.27</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>1.22</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>1.03</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1.68</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1.21</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1.04</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>1.54</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>1.47</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1.31</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1.37</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>0.91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>1.18</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>1.46</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>1.36</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>1.48</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>1.47</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>0.92</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>1.07</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>1.98</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>0.69</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>0.82</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>1.08</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>0.84</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>1.23</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>0.84</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>1.19</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>1.78</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>1.82</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>0.83</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>0.89</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>1.37</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>1.46</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>1.28</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>0.88</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>1.71</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>0.87</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>1.31</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>1.87</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>0.87</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>1.03</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>0.43</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>1.32</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>0.91</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>1.19</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>1.54</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>1.31</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>1.04</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>0.38</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>0.74</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>1.27</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>0.72</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>0.39</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>0.74</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>2.37</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>0.87</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>1.57</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>0.69</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>0.83</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>2.06</v>
       </c>
@@ -2900,1507 +2940,1507 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>0.64</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>0.72</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>0.76</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>0.72</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>0.77</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>0.74</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>0.76</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>0.74</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>0.72</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>0.59</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>0.54</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>0.46</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>0.52</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>0.54</v>
       </c>
@@ -4418,1507 +4458,1507 @@
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>296.2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>274.52999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>315.47000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>305.76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>307.52999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>293.52999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>265.82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>380.44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>272.12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>301.13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>373.54</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>298.07</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>310.99</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>306.25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>303.27999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>348.46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>266.55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>287.94</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>333.41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>269.44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>301.66000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>223.12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>312.82</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>356.19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>313.41000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>328.1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>367.88</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>264.94</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>283.37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>235.1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>281.42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>220.66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>374.65</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>274.24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>252.44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>387.68</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>316.7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>320.7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>317.7</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>359.18</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>375.22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>280.04000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>344.98</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>360.83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>231.59</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>296.14</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>290.18</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>256.49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>292.44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>274.62</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>354.47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>232.99</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>340.96</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>268.77</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>307.87</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>312.33999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>281.52999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>315.37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>327.63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>277.99</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>262.33</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>370.47</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>258.55</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>282.23</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>309.87</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>356.65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>272.01</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>307.64</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>316.74</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>298.77</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>245.51</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>329.97</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>260.55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>248.96</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>275.66000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>285.33999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>253.83</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>235.03</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>287.88</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>330.8</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>314.55</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>337.23</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>289.55</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>333.71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>362.72</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>248.92</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>256.87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>380.6</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>310.45</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>278.88</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>296.2</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>282.45</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>262.3</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>289.60000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>265.16000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>353.81</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>291.02</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>236.46</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>390.69</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>256.83</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>240.12</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>445.76</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>268.3</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>299.94</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>251.25</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>351.34</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>294.02</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>271.39</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>242.88</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>322.41000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>301.5</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>318.97000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>304.63</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>403.38</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>350.37</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>324.26</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>341.27</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>247.79</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>314.62</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>226.55</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>244.01</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>242.98</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>225.42</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>300.25</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>276.49</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>347.14</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>249.43</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>277.52999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>267.01</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>312.7</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>267.93</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>274.49</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>343.87</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>261.67</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>382.95</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>291.92</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>295.79000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>318.83999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>337.35</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>254.77</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>298.56</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>304.72000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>303.07</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>291.45999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>298.72000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>344.54</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>309.83999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>411.77</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>221.77</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>262.02</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>264.36</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>236.68</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>307.87</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>444.33</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>253.3</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>235.51</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>295.63</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>230.03</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>311.85000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>352.03</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>339.87</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>343.28</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>244.92</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>279.70999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>241.3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>386.38</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>269.83999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>267.77</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>308.95</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>257.35000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>318.77</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>290.70999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>359.75</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>318.51</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>295.08</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>337.45</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>330.81</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>327.47000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>272.67</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>290.52</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>304.60000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>292.12</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>291.87</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>299.02999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>328.8</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>287.19</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>293.99</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>282.35000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>326.7</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>460.68</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>319.76</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>233.46</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>249.33</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>296.33999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>382.43</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>325.76</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>318.61</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>294.02</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>272.17</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>326.14999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>326.63</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>299.26</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>294.45999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>327.33</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>251.59</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>267.66000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>285.74</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>382.2</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>277.76</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>254.78</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>373.9</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>322.75</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>236.39</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>284.64999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>308.77999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>259.85000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>269.95999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>280.47000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>241.5</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>318.12</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>316.45</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>241.64</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>333.09</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>275.51</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>229.34</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>314.08999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>367.23</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>301.42</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>282.45</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>272.82</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>291.32</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>269.17</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>226.76</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>324.95999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>259.93</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>308.39999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>295.3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>229.64</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>288.27999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>297.3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>297.16000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>346.73</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>316.75</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>362.76</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>383.54</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>260.64</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>243.31</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>336.5</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>266.62</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>295.24</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>295.54000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>247.71</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>276.55</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>285.72000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>392.78</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>409.91</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>324.93</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>271.58999999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>229.75</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>258.98</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>277.74</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>312.45999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>328.54</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>257.58</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>345.11</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>386.31</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>301.27</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>316.77999999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>285.75</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>256.43</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>297.18</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>283.02</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>279.14999999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>378.09</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>303.8</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>243.78</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>321.8</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>259.18</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>365.58</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>276.16000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>293.27</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>304.38</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>305.3</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>223.45</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>398.55</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>421.02</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>250.78</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>316.44</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>323.58</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>353.48</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>320.47000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>322.45999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>274.85000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>319.24</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>274.14</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>334.9</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>335.81</v>
       </c>
@@ -5937,1004 +5977,1004 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>9.5950686348369345</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>24.8814941085875</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13.717985469440464</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>17.025376594858244</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>14.55587565334281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11.871306499699131</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.8569348968449049</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12.411214386986103</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>15.160484993713908</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13.374969542666804</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.7038078213809058</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11.196129465417471</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.2461682773428038</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6.8774711810983717</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>17.567690095631406</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14.122251316905022</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>21.313080227002501</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>13.503926796431188</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9.8293362801196054</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>11.704295987612568</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8.3417667458998039</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5.2100035948678851</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15.769837348954752</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15.110144461970776</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9.0016597217181697</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>15.776522135012783</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7.463304003351368</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>13.889738996396773</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16.287630872568116</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>14.167125785490498</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>16.546018317341805</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8.9171039992943406</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8.734732121694833</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>18.106820364948362</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15.747945811483078</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>21.146533557213843</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10.147809492365923</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11.127003320609219</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>14.012438926612958</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8.83407622796949</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10.5568180363625</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>15.005634425790049</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>17.816091288579628</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>18.325844879029319</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10.890316419419833</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9.7891638991422951</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>8.2563197186682373</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10.37584255146794</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8.1307185003533959</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>15.975683284807019</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>11.96771748556057</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>13.568491825310048</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>15.951690814574249</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>14.37347194342874</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5.7063254290260303</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15.675932020996697</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>18.768132152501494</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>13.237149263033643</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>9.5031460053287446</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>10.447356119868346</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>14.003416739171371</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>11.641049726051278</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>12.228856151807122</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>10.805792529310565</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>14.162869350286201</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>12.014533725334331</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>17.203464752412401</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12.800746420281939</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>13.625821823836304</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>10.443399817915633</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>9.4377442413242534</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>15.093200575676747</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>10.145422068773769</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>9.8314599502482451</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>11.060755726532079</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7.9462425168603597</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>13.803618943085894</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>13.498347046435811</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>8.5444203553488478</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>17.509446054929867</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>16.736175469588488</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>11.030851540737785</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>13.302150849369355</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>17.854235496371984</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>12.850759533932433</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5.5869633443653504</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>13.809376044548117</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>12.949312379816547</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>10.803232301725075</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>13.167040863947477</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>17.357787813409232</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>8.4696053211810067</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>18.203790690051392</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>8.417354850564152</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>13.760363375069574</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>17.149740900378674</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>12.998797986540012</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>11.941705937089864</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>16.383991836220957</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>22.121811374090601</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>17.72940734855365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>12.8324389252811</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>6.7374908515485004</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>8.7721669236198068</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>26.190930010517999</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>11.328101694118232</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>9.3996818880550563</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>9.9468248056946322</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>11.039669091871474</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>11.880797076912131</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>9.4740785546600819</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>15.472941898507997</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>9.0476619637338445</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>9.9583344611455686</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>25.0370177025906</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>11.837014001968782</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>7.0994788378011435</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>7.7167074171593413</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>11.816491254023276</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>7.8411262923618779</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>13.146618160419166</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>14.685583240236156</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>11.83946509019006</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>8.27477336616721</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>17.811707524117082</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>7.7259296934353188</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>14.60750312008895</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>14.556625986471772</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>9.2589557728497311</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>6.4595765555277467</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>11.510873749386519</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>10.33054516784614</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>10.222765498212539</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>4.2316055744886398</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>12.67065229814034</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>13.328317011939362</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>7.4603936203056946</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>15.926343197235838</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>15.290952008683234</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>29.6757998259272</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>17.766360118286684</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5.1471393210813403</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>18.752816261723638</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>12.587624526815489</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>15.950190148316324</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>17.439178494270891</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>16.554785846266896</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>8.0363311402034014</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>7.6872761686099693</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>7.5416024022269994</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>11.706133166910149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>14.013134690059815</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>9.6665458234492689</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>10.694620444439352</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>8.5643837640527636</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>18.269820005400106</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>22.754586178809401</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>12.164823177328799</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>11.50902747514192</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>19.308286553248699</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>12.4176763468422</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>16.017520041088574</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>8.5417555358726531</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>8.4993185130879283</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>7.1079007587395608</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>17.768943083239719</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>10.280673025874421</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>10.178750502120238</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>16.824923962587491</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>12.558256942895241</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>7.1908830553293228</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>10.398407115018927</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>13.083312781702261</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>11.443907654494978</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>7.2191228658193722</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>16.437388270162046</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>16.383437044452876</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>20.017531672492598</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>5.9934710962697801</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>11.577403286821209</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11.294250301318243</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>20.986826287582517</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>18.140398909337819</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>12.863601599121466</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>12.49097252485808</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>9.1507531881798059</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>34.5317024462856</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>14.993883754243143</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>12.78888660937082</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>10.911289367242716</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>15.179757186444476</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>11.8197711445391</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>17.279280230752192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>14.736014721449465</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>10.968023646739312</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>17.326437531039119</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>12.416443981521297</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>7.7951513351872563</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>10.264547684811987</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>14.484230208210647</v>
       </c>
@@ -6945,15 +6985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e1d2482-4db3-485c-9418-0616ece0e40b">
@@ -6964,7 +6995,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010092D9B0EE2488244F898E8C3F7E600270" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2fe032b538ebba596d9d6c5ed560ec11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1d2482-4db3-485c-9418-0616ece0e40b" xmlns:ns3="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba51e4619d3c4ab622247c94c5d04d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
@@ -7173,15 +7204,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC34AD58-F547-4C57-8282-C952F6147E8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C4753A-873A-4597-8B25-22CD449D79BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -7198,7 +7230,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998A7B69-9EA5-4F7F-B299-9991E3C7B607}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7215,4 +7247,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC34AD58-F547-4C57-8282-C952F6147E8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/42417_Manufacturing_Case_Data_120623 (1).xlsx
+++ b/42417_Manufacturing_Case_Data_120623 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpkhs\OneDrive - Danmarks Tekniske Universitet\School\Simulation in Operations Management\fishManufactureSimulatoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{C099E564-D7E7-479A-8DB7-30759DBA02B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D871C70-6D24-46BD-BD72-7C9590396D7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D0D3E-C389-4DE7-9939-203F849E07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Plan" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5973,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6985,17 +6985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e1d2482-4db3-485c-9418-0616ece0e40b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010092D9B0EE2488244F898E8C3F7E600270" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2fe032b538ebba596d9d6c5ed560ec11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1d2482-4db3-485c-9418-0616ece0e40b" xmlns:ns3="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba51e4619d3c4ab622247c94c5d04d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
@@ -7204,6 +7193,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e1d2482-4db3-485c-9418-0616ece0e40b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7214,23 +7214,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C4753A-873A-4597-8B25-22CD449D79BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b9f6502f-e9d8-48f3-86ba-b3b73b14511a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998A7B69-9EA5-4F7F-B299-9991E3C7B607}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7249,6 +7232,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C4753A-873A-4597-8B25-22CD449D79BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b9f6502f-e9d8-48f3-86ba-b3b73b14511a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC34AD58-F547-4C57-8282-C952F6147E8E}">
   <ds:schemaRefs>

--- a/42417_Manufacturing_Case_Data_120623 (1).xlsx
+++ b/42417_Manufacturing_Case_Data_120623 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpkhs\OneDrive - Danmarks Tekniske Universitet\School\Simulation in Operations Management\fishManufactureSimulatoin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D0D3E-C389-4DE7-9939-203F849E07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{A82D0D3E-C389-4DE7-9939-203F849E07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A12FFBE-EFA3-4504-87E2-9EB2C7464783}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3960" yWindow="410" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Plan" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t> </t>
   </si>
@@ -234,6 +234,9 @@
   <si>
     <t>FishCoefficient</t>
   </si>
+  <si>
+    <t>PeriodicCleaning</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -704,11 +707,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,6 +844,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,6 +1263,9 @@
       <c r="H1" s="56" t="s">
         <v>62</v>
       </c>
+      <c r="I1" s="57" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
@@ -1274,6 +1292,9 @@
       <c r="H2" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
@@ -1300,6 +1321,9 @@
       <c r="H3" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
@@ -1326,6 +1350,9 @@
       <c r="H4" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
@@ -1352,7 +1379,9 @@
       <c r="H5" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1382,6 +1411,9 @@
       <c r="H6" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
@@ -1408,6 +1440,9 @@
       <c r="H7" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
@@ -1434,6 +1469,9 @@
       <c r="H8" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
@@ -1460,6 +1498,9 @@
       <c r="H9" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
@@ -1486,6 +1527,9 @@
       <c r="H10" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
@@ -1511,6 +1555,9 @@
       </c>
       <c r="H11" s="55">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1534,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,12 +1594,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1612,10 +1659,10 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1796,21 +1843,21 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="21" t="s">
         <v>8</v>
       </c>
@@ -1820,10 +1867,10 @@
       <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="16" t="s">
         <v>33</v>
       </c>
@@ -1832,10 +1879,10 @@
       <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="16" t="s">
         <v>33</v>
       </c>
@@ -1844,10 +1891,10 @@
       <c r="A26" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="24" t="s">
         <v>8</v>
       </c>
@@ -1861,20 +1908,20 @@
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
     </row>
     <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48"/>
@@ -5973,7 +6020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>

--- a/42417_Manufacturing_Case_Data_120623 (1).xlsx
+++ b/42417_Manufacturing_Case_Data_120623 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{A82D0D3E-C389-4DE7-9939-203F849E07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A12FFBE-EFA3-4504-87E2-9EB2C7464783}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{A82D0D3E-C389-4DE7-9939-203F849E07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1779D327-8FE7-4737-92E4-FA27EB577388}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3960" yWindow="410" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Plan" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t> </t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>FishCoefficient</t>
-  </si>
-  <si>
-    <t>PeriodicCleaning</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1220,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,9 +1260,7 @@
       <c r="H1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="57" t="s">
-        <v>63</v>
-      </c>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
@@ -1292,9 +1287,6 @@
       <c r="H2" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
@@ -1321,9 +1313,6 @@
       <c r="H3" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
@@ -1350,9 +1339,6 @@
       <c r="H4" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
@@ -1379,9 +1365,7 @@
       <c r="H5" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1411,9 +1395,6 @@
       <c r="H6" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
@@ -1440,9 +1421,6 @@
       <c r="H7" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
@@ -1469,9 +1447,6 @@
       <c r="H8" s="55">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
@@ -1498,9 +1473,6 @@
       <c r="H9" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
@@ -1527,9 +1499,6 @@
       <c r="H10" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
@@ -1555,9 +1524,6 @@
       </c>
       <c r="H11" s="55">
         <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -7032,6 +6998,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e1d2482-4db3-485c-9418-0616ece0e40b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010092D9B0EE2488244F898E8C3F7E600270" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2fe032b538ebba596d9d6c5ed560ec11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1d2482-4db3-485c-9418-0616ece0e40b" xmlns:ns3="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba51e4619d3c4ab622247c94c5d04d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
@@ -7240,17 +7217,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5e1d2482-4db3-485c-9418-0616ece0e40b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b9f6502f-e9d8-48f3-86ba-b3b73b14511a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7261,6 +7227,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C4753A-873A-4597-8B25-22CD449D79BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b9f6502f-e9d8-48f3-86ba-b3b73b14511a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998A7B69-9EA5-4F7F-B299-9991E3C7B607}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7279,23 +7262,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C4753A-873A-4597-8B25-22CD449D79BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5e1d2482-4db3-485c-9418-0616ece0e40b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b9f6502f-e9d8-48f3-86ba-b3b73b14511a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC34AD58-F547-4C57-8282-C952F6147E8E}">
   <ds:schemaRefs>
